--- a/脚本/mongodb性能测试/mongodb_分析.xlsx
+++ b/脚本/mongodb性能测试/mongodb_分析.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="2700" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mongodb" sheetId="1" r:id="rId1"/>
     <sheet name="mysql" sheetId="2" r:id="rId2"/>
+    <sheet name="redis" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>进程数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +50,37 @@
   </si>
   <si>
     <t>求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增数据(条)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个进程平均耗时</t>
+  </si>
+  <si>
+    <t>单个进程平均耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,11 +432,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="752748240"/>
-        <c:axId val="752748800"/>
+        <c:axId val="651810656"/>
+        <c:axId val="651809536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="752748240"/>
+        <c:axId val="651810656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +535,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752748800"/>
+        <c:crossAx val="651809536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -511,7 +543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="752748800"/>
+        <c:axId val="651809536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -611,7 +643,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="752748240"/>
+        <c:crossAx val="651810656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -727,48 +759,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>插入数据</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>5w</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>条</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -783,11 +773,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -802,245 +792,135 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>mongodb!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mongodb!$B$25:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>总耗时(秒)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mongodb!$C$25:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9660000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1062476784"/>
+        <c:axId val="844155056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1062476784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>mongodb!$A$22:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>mongodb!$B$22:$B$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>11.819000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0549999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.609</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5279999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7430000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="65"/>
-        <c:axId val="755661984"/>
-        <c:axId val="755660304"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="755661984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>进程数量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1052,11 +932,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1067,116 +947,71 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="755660304"/>
+        <c:crossAx val="844155056"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="755660304"/>
+        <c:axId val="844155056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>总耗时</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="755661984"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1062476784"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1191,39 +1026,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="89000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="23000">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="89000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="69000">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="97000">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="70000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1529,11 +1339,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="974671952"/>
-        <c:axId val="974672512"/>
+        <c:axId val="653581472"/>
+        <c:axId val="653582032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="974671952"/>
+        <c:axId val="653581472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,7 +1447,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="974672512"/>
+        <c:crossAx val="653582032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1645,7 +1455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="974672512"/>
+        <c:axId val="653582032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,7 +1562,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="974671952"/>
+        <c:crossAx val="653581472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1855,6 +1665,372 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mysql!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>单个进程平均耗时</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mysql!$B$29:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mysql!$C$29:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.8239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.673</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.518000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="715675392"/>
+        <c:axId val="844156736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="715675392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="844156736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="844156736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="715675392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>插入</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>5w</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>条数据</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
             <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
@@ -1884,7 +2060,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>mysql!$B$26</c:f>
+              <c:f>redis!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1976,10 +2152,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>mysql!$A$27:$A$34</c:f>
+              <c:f>redis!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1997,45 +2173,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mysql!$B$27:$B$34</c:f>
+              <c:f>redis!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>23.202999999999999</c:v>
+                  <c:v>11.183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.744</c:v>
+                  <c:v>5.6580000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.891</c:v>
+                  <c:v>4.1159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2460000000000004</c:v>
+                  <c:v>3.37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.92</c:v>
+                  <c:v>2.4529999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3410000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.319</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.625</c:v>
+                  <c:v>2.923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2051,11 +2215,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="1144159920"/>
-        <c:axId val="1144162160"/>
+        <c:axId val="33584320"/>
+        <c:axId val="33584880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1144159920"/>
+        <c:axId val="33584320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,7 +2232,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -2081,16 +2245,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>进程数量</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
                   <a:t> </a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2108,7 +2272,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1">
                       <a:lumMod val="65000"/>
@@ -2156,7 +2320,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1144162160"/>
+        <c:crossAx val="33584880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2164,7 +2328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1144162160"/>
+        <c:axId val="33584880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2190,34 +2354,34 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>总耗时</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>(</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>秒</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>)</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
                   <a:t> </a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2255,7 +2419,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1144159920"/>
+        <c:crossAx val="33584320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2275,34 +2439,467 @@
     <a:gradFill flip="none" rotWithShape="1">
       <a:gsLst>
         <a:gs pos="0">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="89000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:gs>
-        <a:gs pos="23000">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="89000"/>
+        <a:gs pos="68000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
           </a:schemeClr>
         </a:gs>
-        <a:gs pos="69000">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="97000">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="70000"/>
-          </a:schemeClr>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1"/>
         </a:gs>
       </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
+      <a:lin ang="5400000" scaled="1"/>
       <a:tileRect/>
     </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>redis!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>单个进程平均耗时</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>redis!$B$23:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>redis!$C$23:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.2060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.734</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="712857488"/>
+        <c:axId val="844420128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="712857488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>新增数据</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>条</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="844420128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="844420128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>单个进程平均耗时</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712857488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2489,6 +3086,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
@@ -3060,6 +3737,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3629,200 +4822,164 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3846,19 +5003,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3868,22 +5027,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3892,17 +5052,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3911,12 +5071,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3930,36 +5090,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -3969,28 +5123,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3999,35 +5142,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4036,35 +5180,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4072,22 +5208,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4095,14 +5220,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4114,12 +5239,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4128,13 +5253,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4143,9 +5269,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4155,19 +5281,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4176,14 +5303,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4193,13 +5326,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4762,6 +5901,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4800,20 +6455,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>828674</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4866,19 +6521,84 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>366711</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5183,16 +6903,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
@@ -5308,81 +7028,107 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>11.819000000000001</v>
-      </c>
-      <c r="C22">
-        <v>11.555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
         <v>10</v>
-      </c>
-      <c r="B23">
-        <v>6.0549999999999997</v>
-      </c>
-      <c r="C23">
-        <v>5.5510000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>15</v>
-      </c>
-      <c r="B24">
-        <v>4.609</v>
-      </c>
-      <c r="C24">
-        <v>3.8530000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>4.5279999999999996</v>
+        <f>A25*2500</f>
+        <v>12500</v>
       </c>
       <c r="C25">
-        <v>3.3359999999999999</v>
+        <v>2.754</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>4.3319999999999999</v>
+        <f t="shared" ref="B26:B31" si="0">A26*2500</f>
+        <v>37500</v>
       </c>
       <c r="C26">
-        <v>2.3370000000000002</v>
+        <v>3.0030000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="C27">
+        <v>3.331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>75000</v>
+      </c>
+      <c r="C28">
+        <v>3.8490000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="C29">
+        <v>4.8380000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
         <v>50</v>
       </c>
-      <c r="B27">
-        <v>4.7430000000000003</v>
-      </c>
-      <c r="C27">
-        <v>1.5229999999999999</v>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>125000</v>
+      </c>
+      <c r="C30">
+        <v>5.9660000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>80</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -5395,15 +7141,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5550,103 +7296,307 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <f>A29*2500</f>
+        <v>12500</v>
+      </c>
+      <c r="C29">
+        <v>5.8239999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30:B35" si="0">A30*2500</f>
+        <v>37500</v>
+      </c>
+      <c r="C30">
+        <v>5.5679999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="C31">
+        <v>5.6749999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>75000</v>
+      </c>
+      <c r="C32">
+        <v>5.7279999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="C33">
+        <v>6.673</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>125000</v>
+      </c>
+      <c r="C34">
+        <v>7.2279999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>80</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="C35">
+        <v>10.518000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="4" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>11.183</v>
+      </c>
+      <c r="C2">
+        <v>10.955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>5.6580000000000004</v>
+      </c>
+      <c r="C3">
+        <v>5.2389999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>4.1159999999999997</v>
+      </c>
+      <c r="C4">
+        <v>3.512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>3.37</v>
+      </c>
+      <c r="C5">
+        <v>2.548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="C6">
+        <v>1.3480000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>2.923</v>
+      </c>
+      <c r="C7">
+        <v>1.107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <f>A23*5000</f>
+        <v>25000</v>
+      </c>
+      <c r="C23">
+        <v>5.2060000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <f>A24*5000</f>
+        <v>75000</v>
+      </c>
+      <c r="C24">
+        <v>5.1310000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <f>A25*5000</f>
+        <v>100000</v>
+      </c>
+      <c r="C25">
+        <v>5.14</v>
+      </c>
+    </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <f>A26*5000</f>
+        <v>150000</v>
+      </c>
+      <c r="C26">
+        <v>5.5030000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B27">
-        <v>23.202999999999999</v>
+        <f>A27*5000</f>
+        <v>200000</v>
       </c>
       <c r="C27">
-        <v>22.99</v>
+        <v>5.641</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B28">
-        <v>11.744</v>
+        <f>A28*5000</f>
+        <v>225000</v>
       </c>
       <c r="C28">
-        <v>11.303000000000001</v>
+        <v>5.734</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <f>A29*5000</f>
+        <v>250000</v>
+      </c>
+      <c r="C29">
+        <v>6.593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
         <v>15</v>
-      </c>
-      <c r="B29">
-        <v>7.891</v>
-      </c>
-      <c r="C29">
-        <v>7.2850000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>20</v>
-      </c>
-      <c r="B30">
-        <v>6.2460000000000004</v>
-      </c>
-      <c r="C30">
-        <v>5.4459999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>4.92</v>
-      </c>
-      <c r="C31">
-        <v>3.8220000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>50</v>
-      </c>
-      <c r="B32">
-        <v>4.3410000000000002</v>
-      </c>
-      <c r="C32">
-        <v>2.544</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>80</v>
-      </c>
-      <c r="B33">
-        <v>4.319</v>
-      </c>
-      <c r="C33">
-        <v>1.556</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>100</v>
-      </c>
-      <c r="B34">
-        <v>4.625</v>
-      </c>
-      <c r="C34">
-        <v>1.151</v>
       </c>
     </row>
   </sheetData>

--- a/脚本/mongodb性能测试/mongodb_分析.xlsx
+++ b/脚本/mongodb性能测试/mongodb_分析.xlsx
@@ -4,36 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="5160" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="mongodb" sheetId="1" r:id="rId1"/>
-    <sheet name="mysql" sheetId="2" r:id="rId2"/>
-    <sheet name="redis" sheetId="3" r:id="rId3"/>
+    <sheet name="总结" sheetId="4" r:id="rId1"/>
+    <sheet name="mongodb" sheetId="1" r:id="rId2"/>
+    <sheet name="mysql" sheetId="2" r:id="rId3"/>
+    <sheet name="redis" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>进程数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求和</t>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,10 +32,6 @@
   </si>
   <si>
     <t>总耗时(秒)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -81,6 +63,18 @@
   </si>
   <si>
     <t>平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongodb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,6 +179,508 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>mongodb</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>总结!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>总结!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9660000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>mysql</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>总结!$B$15:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>总结!$C$15:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.8239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.673</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.518000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>redis</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>总结!$B$27:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>总结!$C$27:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.548</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3260000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="701769408"/>
+        <c:axId val="701780048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="701769408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="701780048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="701780048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="701769408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -432,11 +928,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="651810656"/>
-        <c:axId val="651809536"/>
+        <c:axId val="648922976"/>
+        <c:axId val="648798144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="651810656"/>
+        <c:axId val="648922976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,7 +1031,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651809536"/>
+        <c:crossAx val="648798144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -543,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="651809536"/>
+        <c:axId val="648798144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -643,7 +1139,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="651810656"/>
+        <c:crossAx val="648922976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -744,7 +1240,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -886,11 +1382,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1062476784"/>
-        <c:axId val="844155056"/>
+        <c:axId val="650318000"/>
+        <c:axId val="650318560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1062476784"/>
+        <c:axId val="650318000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,12 +1443,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="844155056"/>
+        <c:crossAx val="650318560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="844155056"/>
+        <c:axId val="650318560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,7 +1505,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1062476784"/>
+        <c:crossAx val="650318000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1058,7 +1554,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1339,11 +1835,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="653581472"/>
-        <c:axId val="653582032"/>
+        <c:axId val="650320800"/>
+        <c:axId val="650321360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="653581472"/>
+        <c:axId val="650320800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,7 +1943,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653582032"/>
+        <c:crossAx val="650321360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1455,7 +1951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="653582032"/>
+        <c:axId val="650321360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1562,7 +2058,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="653581472"/>
+        <c:crossAx val="650320800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1636,7 +2132,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1795,11 +2291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="715675392"/>
-        <c:axId val="844156736"/>
+        <c:axId val="650323600"/>
+        <c:axId val="650324160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="715675392"/>
+        <c:axId val="650323600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1856,12 +2352,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="844156736"/>
+        <c:crossAx val="650324160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="844156736"/>
+        <c:axId val="650324160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,7 +2414,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="715675392"/>
+        <c:crossAx val="650323600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1967,7 +2463,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2215,11 +2711,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="33584320"/>
-        <c:axId val="33584880"/>
+        <c:axId val="650326400"/>
+        <c:axId val="650326960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="33584320"/>
+        <c:axId val="650326400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,7 +2816,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33584880"/>
+        <c:crossAx val="650326960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2328,7 +2824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33584880"/>
+        <c:axId val="650326960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,7 +2915,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33584320"/>
+        <c:crossAx val="650326400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2482,7 +2978,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2547,25 +3043,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>25000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>75000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>225000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2577,25 +3073,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.2060000000000004</c:v>
+                  <c:v>2.669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1310000000000002</c:v>
+                  <c:v>2.762</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.14</c:v>
+                  <c:v>2.548</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5030000000000001</c:v>
+                  <c:v>2.4350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.641</c:v>
+                  <c:v>2.7519999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.734</c:v>
+                  <c:v>3.016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.593</c:v>
+                  <c:v>3.3260000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2610,11 +3106,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="712857488"/>
-        <c:axId val="844420128"/>
+        <c:axId val="650329200"/>
+        <c:axId val="650329760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="712857488"/>
+        <c:axId val="650329200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,12 +3248,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="844420128"/>
+        <c:crossAx val="650329760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="844420128"/>
+        <c:axId val="650329760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2780,7 +3276,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2820,7 +3316,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2877,7 +3373,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712857488"/>
+        <c:crossAx val="650329200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3166,7 +3662,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3736,7 +4788,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4252,7 +5304,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4822,7 +5874,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5338,7 +6390,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5905,7 +6957,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6422,6 +7474,41 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6486,7 +7573,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6520,16 +7607,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6551,7 +7638,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6586,15 +7673,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6903,10 +7990,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f>A3*2500</f>
+        <v>12500</v>
+      </c>
+      <c r="C3">
+        <v>2.754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B8" si="0">A4*2500</f>
+        <v>37500</v>
+      </c>
+      <c r="C4">
+        <v>3.0030000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="C5">
+        <v>3.331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>75000</v>
+      </c>
+      <c r="C6">
+        <v>3.8490000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="C7">
+        <v>4.8380000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>125000</v>
+      </c>
+      <c r="C8">
+        <v>5.9660000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <f>A15*2500</f>
+        <v>12500</v>
+      </c>
+      <c r="C15">
+        <v>5.8239999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:B21" si="1">A16*2500</f>
+        <v>37500</v>
+      </c>
+      <c r="C16">
+        <v>5.5679999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="C17">
+        <v>5.6749999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>75000</v>
+      </c>
+      <c r="C18">
+        <v>5.7279999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="C19">
+        <v>6.673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>125000</v>
+      </c>
+      <c r="C20">
+        <v>7.2279999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>80</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+      <c r="C21">
+        <v>10.518000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <f>A27*2500</f>
+        <v>12500</v>
+      </c>
+      <c r="C27">
+        <v>2.669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B33" si="2">A28*2500</f>
+        <v>37500</v>
+      </c>
+      <c r="C28">
+        <v>2.762</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+      <c r="C29">
+        <v>2.548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>75000</v>
+      </c>
+      <c r="C30">
+        <v>2.4350000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="C31">
+        <v>2.7519999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>125000</v>
+      </c>
+      <c r="C32">
+        <v>3.016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>80</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="C33">
+        <v>3.3260000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6923,10 +8319,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -7033,10 +8429,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -7120,15 +8516,15 @@
         <v>200000</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -7139,12 +8535,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7158,10 +8554,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -7301,10 +8697,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -7393,10 +8789,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -7406,12 +8802,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7424,10 +8820,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -7501,10 +8897,10 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -7512,11 +8908,11 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <f>A23*5000</f>
-        <v>25000</v>
+        <f>A23*2500</f>
+        <v>12500</v>
       </c>
       <c r="C23">
-        <v>5.2060000000000004</v>
+        <v>2.669</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -7524,11 +8920,11 @@
         <v>15</v>
       </c>
       <c r="B24">
-        <f>A24*5000</f>
-        <v>75000</v>
+        <f t="shared" ref="B24:B29" si="0">A24*2500</f>
+        <v>37500</v>
       </c>
       <c r="C24">
-        <v>5.1310000000000002</v>
+        <v>2.762</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -7536,11 +8932,11 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <f>A25*5000</f>
-        <v>100000</v>
+        <f t="shared" si="0"/>
+        <v>50000</v>
       </c>
       <c r="C25">
-        <v>5.14</v>
+        <v>2.548</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -7548,11 +8944,11 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <f>A26*5000</f>
-        <v>150000</v>
+        <f t="shared" si="0"/>
+        <v>75000</v>
       </c>
       <c r="C26">
-        <v>5.5030000000000001</v>
+        <v>2.4350000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -7560,48 +8956,49 @@
         <v>40</v>
       </c>
       <c r="B27">
-        <f>A27*5000</f>
-        <v>200000</v>
+        <f t="shared" si="0"/>
+        <v>100000</v>
       </c>
       <c r="C27">
-        <v>5.641</v>
+        <v>2.7519999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B28">
-        <f>A28*5000</f>
-        <v>225000</v>
+        <f t="shared" si="0"/>
+        <v>125000</v>
       </c>
       <c r="C28">
-        <v>5.734</v>
+        <v>3.016</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B29">
-        <f>A29*5000</f>
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>200000</v>
       </c>
       <c r="C29">
-        <v>6.593</v>
+        <v>3.3260000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>